--- a/data/trans_camb/P1428-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1428-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.911837274151952</v>
+        <v>-3.277010067152011</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.833407689707054</v>
+        <v>-4.322786265975487</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.942604792319661</v>
+        <v>-3.218205491646366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.852488695416561</v>
+        <v>-9.333648305813979</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-11.06088220895739</v>
+        <v>-10.81524563464184</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.799225461454482</v>
+        <v>-4.690073520881504</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.929777099599112</v>
+        <v>-5.135599962440093</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.411310172551484</v>
+        <v>-6.630814480375805</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.861434504221376</v>
+        <v>-2.642131972834566</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.255033341599764</v>
+        <v>2.101166666675718</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6178603419425648</v>
+        <v>0.533443163940894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.659862251358676</v>
+        <v>1.504939876920444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.518419611863552</v>
+        <v>-0.9393918901994656</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.364617432633025</v>
+        <v>-3.134552611966335</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.692559199106112</v>
+        <v>2.946000080545008</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.2873136101334386</v>
+        <v>-0.5564934072417796</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.001225307241378</v>
+        <v>-2.097630820690256</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.482988481093246</v>
+        <v>1.636132587428144</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3881425321944067</v>
+        <v>-0.4433381297450302</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5409906830827739</v>
+        <v>-0.5727922258415289</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4065092055078883</v>
+        <v>-0.4081514535843298</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4503944564045156</v>
+        <v>-0.4310084873958647</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5179000935381518</v>
+        <v>-0.5191173674686512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2221060254531365</v>
+        <v>-0.2139938635289106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3652569896617671</v>
+        <v>-0.374377133421015</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4724107703126331</v>
+        <v>-0.4747049099509588</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2086542884709647</v>
+        <v>-0.1872962279288034</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4565204725222151</v>
+        <v>0.4263162099514111</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1323920350028005</v>
+        <v>0.109169518440827</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3193836990775674</v>
+        <v>0.2955936521731575</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08515462011170163</v>
+        <v>-0.05277061904858591</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1792372768667423</v>
+        <v>-0.1668518548038696</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1617672222316302</v>
+        <v>0.1867549306168823</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02825635370834446</v>
+        <v>-0.05241381085509718</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1781876358149538</v>
+        <v>-0.1744434634818774</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1261066386782806</v>
+        <v>0.1408919970803611</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-4.25995023174294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.128794573257193</v>
+        <v>-3.128794573257195</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-4.838701432924303</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.991357457198204</v>
+        <v>-3.855695219060129</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.223590510545713</v>
+        <v>-6.366617561813785</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.519029354234098</v>
+        <v>-5.153140695830104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.304929385612306</v>
+        <v>-7.968228708316367</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.605593268761128</v>
+        <v>-9.865986141427788</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.954175844432779</v>
+        <v>-6.617006052740438</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.91351270704661</v>
+        <v>-5.070883611022186</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.265443494371689</v>
+        <v>-7.284276006011943</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-5.31089126949353</v>
+        <v>-5.199433269045153</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8775001662575179</v>
+        <v>0.994883230348421</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.486378576421803</v>
+        <v>-2.284379518636489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.372913455087829</v>
+        <v>-0.8437246318940449</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.447065184191691</v>
+        <v>-1.43675680115043</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-3.126287492627943</v>
+        <v>-3.415122881919108</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.8280242503402795</v>
+        <v>-0.6143811680489947</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.000330113124775</v>
+        <v>-0.8313799390399118</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.438330725749457</v>
+        <v>-3.361069756751771</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.703607493533209</v>
+        <v>-1.596825750036412</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5572005461471999</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4092456367237917</v>
+        <v>-0.4092456367237918</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2817510452925596</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4264919077030989</v>
+        <v>-0.4236488795248199</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6994501666507507</v>
+        <v>-0.7013745256778229</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5904761387216455</v>
+        <v>-0.5898956183098953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4350484338481624</v>
+        <v>-0.4143884646530259</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5009569836390907</v>
+        <v>-0.5194471092726612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.360848560660476</v>
+        <v>-0.3413078656281673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3707556104739441</v>
+        <v>-0.3791634199225227</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5399156180167541</v>
+        <v>-0.5386878115474356</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3895456037889492</v>
+        <v>-0.3851050912051543</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1388728454625056</v>
+        <v>0.1546442583199261</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.35590592448263</v>
+        <v>-0.3444843149563078</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1939561337949095</v>
+        <v>-0.1184282661762971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.09866776474584157</v>
+        <v>-0.08896096421039799</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1805531760207042</v>
+        <v>-0.2102980204276464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.05457399799490138</v>
+        <v>-0.02886071537094582</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.08511925616586365</v>
+        <v>-0.08056880472390347</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2995550682601895</v>
+        <v>-0.2862318985499461</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1505540457442283</v>
+        <v>-0.1426382914891693</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-6.730518121260393</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.502416471259384</v>
+        <v>-4.502416471259381</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.812496140901347</v>
+        <v>-5.822186395290303</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.836258152893189</v>
+        <v>-5.765008812161878</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.50399070236977</v>
+        <v>-4.317445847901138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.91579554174072</v>
+        <v>-10.84755492676661</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.73810646549991</v>
+        <v>-13.88025591308954</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.49415606568006</v>
+        <v>-10.33260798023445</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.48572543500334</v>
+        <v>-7.638646842090652</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.903851286093959</v>
+        <v>-8.977000641903164</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.535591581835651</v>
+        <v>-6.764170012360507</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.8339159364814737</v>
+        <v>-1.067471894335835</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.7002413519756733</v>
+        <v>-0.9036981013515012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5824292038724023</v>
+        <v>0.2156117262860095</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.115371534406887</v>
+        <v>-3.393525722086469</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-7.041390244292485</v>
+        <v>-6.998319037354066</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.556881247948561</v>
+        <v>-3.65776672939548</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-3.106010954048971</v>
+        <v>-3.100137888091698</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.393335435551876</v>
+        <v>-4.503175899901133</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-2.393502545792044</v>
+        <v>-2.353476357646854</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4512378708416155</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2788874810287824</v>
+        <v>-0.2788874810287822</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3944255764895283</v>
@@ -1197,7 +1197,7 @@
         <v>-0.5401873676681235</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.3613612589605139</v>
+        <v>-0.3613612589605136</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6944024989925462</v>
+        <v>-0.7072414605089179</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6682832090566525</v>
+        <v>-0.6707638055569121</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5318949969932733</v>
+        <v>-0.5138891126820349</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5415505477524873</v>
+        <v>-0.5384546993383219</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6923299477952816</v>
+        <v>-0.6894139380562531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5286158847148932</v>
+        <v>-0.5156583826153937</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5338243328060061</v>
+        <v>-0.5486401777945695</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6484673179809672</v>
+        <v>-0.6513270739832828</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.475047294844717</v>
+        <v>-0.4880973931350964</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1331335756722565</v>
+        <v>-0.1758404789290338</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1189618997266335</v>
+        <v>-0.1500675251317729</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1066418195664952</v>
+        <v>0.05386760016866746</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1931289239405772</v>
+        <v>-0.2081415248591889</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.4351140234511888</v>
+        <v>-0.4357509180611301</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.23553531481409</v>
+        <v>-0.2381027673439793</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2624624106370027</v>
+        <v>-0.2630958349017393</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3852821419645536</v>
+        <v>-0.4009716406778878</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2209532552662124</v>
+        <v>-0.2163031496558539</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.575572791212326</v>
+        <v>-5.187834727043933</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.83524232560368</v>
+        <v>-6.818092172022452</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.032549713784748</v>
+        <v>-3.870989308374023</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.485717302849873</v>
+        <v>-7.790787803456695</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.33265831024472</v>
+        <v>-12.25633394492121</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.545742794066319</v>
+        <v>-4.667810097750198</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.9004243644095</v>
+        <v>-5.712119617008065</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.01163811253827</v>
+        <v>-9.067263771465619</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.621428538128657</v>
+        <v>-3.467516895165655</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.046108143677403</v>
+        <v>-0.9023641276171893</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.660034227006637</v>
+        <v>-2.751953031919151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3737518144903244</v>
+        <v>0.3637561146926632</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-1.089144761025122</v>
+        <v>-1.246318747976458</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-6.171235703225169</v>
+        <v>-6.736895380529509</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.238504950520031</v>
+        <v>1.105333145320417</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.850299832421843</v>
+        <v>-1.789652597010966</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.373325734560779</v>
+        <v>-5.205874830934622</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2800287332338196</v>
+        <v>0.2237860087883015</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6041028286679248</v>
+        <v>-0.5938377086780299</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7479964956208883</v>
+        <v>-0.7547749954738596</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4536624615222432</v>
+        <v>-0.4271122750652247</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3944624436577673</v>
+        <v>-0.4074743496413861</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6670631086302359</v>
+        <v>-0.6591272994400343</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2437606343488941</v>
+        <v>-0.2442246387540085</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4295735047990872</v>
+        <v>-0.4140065796169571</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6552272443444174</v>
+        <v>-0.6590990263309039</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2611442376046212</v>
+        <v>-0.2551732921259505</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1496599502319341</v>
+        <v>-0.1229225917459906</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3767289242376808</v>
+        <v>-0.3986306856945953</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0597358568014975</v>
+        <v>0.05850116966276516</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.06893503990516928</v>
+        <v>-0.08104917448654259</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.4063419557705633</v>
+        <v>-0.4241877302465543</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07918149639859219</v>
+        <v>0.0735918880493782</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1587639515471481</v>
+        <v>-0.1522130085599364</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4559123799489685</v>
+        <v>-0.4569117082650738</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.03219631567323294</v>
+        <v>0.01777111784037526</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.627151571888239</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.967565496292828</v>
+        <v>-1.967565496292827</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-5.258062014386372</v>
@@ -1511,7 +1511,7 @@
         <v>-8.284843596348841</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.271694038125808</v>
+        <v>-3.271694038125805</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.680288974368419</v>
@@ -1520,7 +1520,7 @@
         <v>-5.97394762147638</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.577869689025521</v>
+        <v>-2.577869689025518</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.257208865779412</v>
+        <v>-3.11118287369042</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.837619114359846</v>
+        <v>-4.561247025162464</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.149578980011141</v>
+        <v>-3.030699940191679</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.939026349910912</v>
+        <v>-7.068816185430612</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.11791776606835</v>
+        <v>-9.964437772857359</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.812704918188286</v>
+        <v>-4.768880865226369</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.816396770169786</v>
+        <v>-4.871182289042517</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.015061509435426</v>
+        <v>-7.035913764212786</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.500632195262686</v>
+        <v>-3.563237492531078</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.9195760393247397</v>
+        <v>-0.6813178989123415</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.509636721219359</v>
+        <v>-2.422966666670526</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.8593725544968945</v>
+        <v>-0.7630290362092965</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.593869270710079</v>
+        <v>-3.54016158120782</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.790300198327776</v>
+        <v>-6.594634751976887</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.697852993149652</v>
+        <v>-1.664841962349651</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.538318608066815</v>
+        <v>-2.664588778800147</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.99019057337308</v>
+        <v>-5.007795868183969</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.523881545844034</v>
+        <v>-1.515761094100325</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.5023941502802807</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2725260789463617</v>
+        <v>-0.2725260789463615</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2978447559673545</v>
@@ -1616,7 +1616,7 @@
         <v>-0.4692978539299702</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.18532624942788</v>
+        <v>-0.1853262494278798</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.294019017712254</v>
@@ -1625,7 +1625,7 @@
         <v>-0.4772598629520308</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2059465218726606</v>
+        <v>-0.2059465218726604</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4163686588206612</v>
+        <v>-0.4042079710021432</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6081708746477477</v>
+        <v>-0.5946575639131527</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3979059249261768</v>
+        <v>-0.3837712026530471</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3720599795663443</v>
+        <v>-0.3792843226761723</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5389824992484515</v>
+        <v>-0.5387347911493281</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2602601015795548</v>
+        <v>-0.2558861354339333</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3658170987613996</v>
+        <v>-0.3685802181512839</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5361880736244725</v>
+        <v>-0.5368101815833002</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2691894590427011</v>
+        <v>-0.2700024656814143</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1450179567267648</v>
+        <v>-0.1103363548536325</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3814267062615702</v>
+        <v>-0.3697536318927649</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1275555291573346</v>
+        <v>-0.1109112697049904</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2154729157232634</v>
+        <v>-0.2130068018804729</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.4000778206065003</v>
+        <v>-0.3970677263501056</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1012825186821315</v>
+        <v>-0.1002784138835612</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2137270759239365</v>
+        <v>-0.2204556631542972</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.417851981218934</v>
+        <v>-0.4178630146059316</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1324803708075198</v>
+        <v>-0.1231179207017386</v>
       </c>
     </row>
     <row r="34">
